--- a/QA_examples.xlsx
+++ b/QA_examples.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shilpam/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramachandran\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{210A7EF0-FD8E-4059-909E-5725B75E0EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="115">
   <si>
     <t>Question</t>
   </si>
@@ -324,12 +335,57 @@
   </si>
   <si>
     <t>special symbol</t>
+  </si>
+  <si>
+    <t>IBM unable to identify bullet points</t>
+  </si>
+  <si>
+    <t>what is the dollar value of sustainability credit facility closed</t>
+  </si>
+  <si>
+    <t>Fact answers need a proper question</t>
+  </si>
+  <si>
+    <t>IBM displays the right doc but not the table</t>
+  </si>
+  <si>
+    <t>Surprising</t>
+  </si>
+  <si>
+    <t>unable to retrieve from tables</t>
+  </si>
+  <si>
+    <t>unable to retrieve from bulleted data</t>
+  </si>
+  <si>
+    <t>unable to retrieve results under headers</t>
+  </si>
+  <si>
+    <t>OCR did not work. It read from another location</t>
+  </si>
+  <si>
+    <t>check if this doc exists</t>
+  </si>
+  <si>
+    <t>Gets the right document</t>
+  </si>
+  <si>
+    <t>Id#</t>
+  </si>
+  <si>
+    <t>IBM score</t>
+  </si>
+  <si>
+    <t>IBM points</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -376,6 +432,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -643,22 +702,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -681,7 +740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -691,11 +750,11 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -705,26 +764,29 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -734,16 +796,16 @@
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -753,19 +815,19 @@
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9">
-        <v>2</v>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -775,14 +837,14 @@
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -792,14 +854,14 @@
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -809,11 +871,11 @@
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -823,14 +885,14 @@
       <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D14">
-        <v>0</v>
+      <c r="E14">
+        <v>1</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -840,14 +902,14 @@
       <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D15">
-        <v>2</v>
+      <c r="E15">
+        <v>1</v>
       </c>
       <c r="G15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -857,379 +919,884 @@
       <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1">
-        <v>483</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="C18" s="1">
+        <v>483</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="C21" s="1" t="s">
+    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17</v>
       </c>
       <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G25" t="s">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C26" s="1" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>18</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G27" t="s">
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="C28" s="1" t="s">
+    <row r="29" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>19</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="I30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="1">
-        <v>134</v>
+        <v>65</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24</v>
       </c>
       <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="1">
+        <v>134</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="C35" s="1" t="s">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C36" s="1" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="C37" s="1" t="s">
+    <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C38" s="1" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="C39" s="1" t="s">
+    <row r="40" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C40" s="1" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>25</v>
-      </c>
-      <c r="B41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>26</v>
       </c>
       <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G42" t="s">
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="C43" s="1" t="s">
+    <row r="44" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="C44" s="1" t="s">
+    <row r="45" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C45" s="1" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>27</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="47" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C47" s="1" t="s">
+      <c r="E47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="C48" s="1" t="s">
+    <row r="49" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C49" s="1" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>28</v>
-      </c>
-      <c r="B50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>30</v>
       </c>
       <c r="B52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C53" s="1" t="s">
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;9&amp;K000000Micron Confidential&amp;1#</oddHeader>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;9&amp;K000000Micron Confidential</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB751DC-ACC8-44FF-8F37-938578115A20}">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>IF(B2=0,0,10/B2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C32" si="0">IF(B3=0,0,10/B3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33">
+        <f>SUM(C2:C32)</f>
+        <v>181.66666666666669</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;9&amp;K000000Micron Confidential&amp;1#</oddHeader>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;9&amp;K000000Micron Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/QA_examples.xlsx
+++ b/QA_examples.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramachandran\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramachandran\Documents\Projects\knowledge_management\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{210A7EF0-FD8E-4059-909E-5725B75E0EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6F2D8E-414E-4FC8-A163-DB9C05E0B988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="121">
   <si>
     <t>Question</t>
   </si>
@@ -130,15 +130,9 @@
     <t>demanding applications like real-time 3D rendering, computer-aided design, gaming and animation</t>
   </si>
   <si>
-    <t>when was 1alpha DRAM introduced</t>
-  </si>
-  <si>
     <t>the introduction of initial 1α node DRAM products in Jan-21</t>
   </si>
   <si>
-    <t>sustainability  credit dollar value</t>
-  </si>
-  <si>
     <t>Sustainability-Linked Credit Facilities Totaling Nearly $3.7 Billion</t>
   </si>
   <si>
@@ -169,9 +163,6 @@
     <t>What is resulting in automative innovation?</t>
   </si>
   <si>
-    <t>Micron’s low-power memory drives automotive innovation and greener transportation</t>
-  </si>
-  <si>
     <t>Micron’s LPDDR5 supports customers in conducting comprehensive safety analysis</t>
   </si>
   <si>
@@ -380,6 +371,33 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Not good regular search</t>
+  </si>
+  <si>
+    <t>Micron’s low-power memory drives automotive innovation and greener transportation. OR. data capture and efficient processing are becoming key to automotive innovation</t>
+  </si>
+  <si>
+    <t>check if the doc exists</t>
+  </si>
+  <si>
+    <t>when was 1-alpha DRAM introduced</t>
+  </si>
+  <si>
+    <t>1alpha does not work</t>
+  </si>
+  <si>
+    <t>sustainability credit dollar value</t>
+  </si>
+  <si>
+    <t>HS score</t>
+  </si>
+  <si>
+    <t>HS points</t>
+  </si>
+  <si>
+    <t>IBM did get the right document</t>
   </si>
 </sst>
 </file>
@@ -705,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -739,6 +757,12 @@
       <c r="G1" t="s">
         <v>9</v>
       </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -749,6 +773,9 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -764,11 +791,14 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -796,6 +826,9 @@
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="E7">
         <v>1</v>
       </c>
@@ -815,11 +848,14 @@
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -837,11 +873,17 @@
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -854,6 +896,9 @@
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
       <c r="E12">
         <v>1</v>
       </c>
@@ -871,6 +916,9 @@
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="E13">
         <v>0</v>
       </c>
@@ -885,11 +933,17 @@
       <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -897,16 +951,22 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="H15" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -914,10 +974,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -926,7 +989,7 @@
         <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -934,16 +997,19 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -951,19 +1017,22 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1">
         <v>483</v>
       </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -971,10 +1040,13 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>39</v>
+      <c r="D19">
+        <v>1</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -988,10 +1060,13 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>40</v>
+      <c r="D20">
+        <v>1</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -999,29 +1074,32 @@
     </row>
     <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>113</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1029,16 +1107,19 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1046,19 +1127,22 @@
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -1066,10 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1080,7 +1167,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1088,10 +1175,13 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1102,7 +1192,7 @@
     </row>
     <row r="29" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1110,19 +1200,22 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1130,19 +1223,22 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I31" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1150,10 +1246,13 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -1164,16 +1263,19 @@
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1181,16 +1283,19 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C34" s="1">
         <v>134</v>
       </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1198,46 +1303,49 @@
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1245,19 +1353,25 @@
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="H42" t="s">
+        <v>114</v>
       </c>
       <c r="I42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1268,28 +1382,31 @@
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1297,10 +1414,13 @@
         <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -1308,17 +1428,17 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1326,16 +1446,19 @@
         <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1343,16 +1466,19 @@
         <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -1360,10 +1486,13 @@
         <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1371,7 +1500,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1386,26 +1515,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB751DC-ACC8-44FF-8F37-938578115A20}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1416,8 +1554,18 @@
         <f>IF(B2=0,0,10/B2)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>IF(G2=0,0,10/G2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1428,8 +1576,18 @@
         <f t="shared" ref="C3:C32" si="0">IF(B3=0,0,10/B3)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H32" si="1">IF(G3=0,0,10/G3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1440,8 +1598,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1452,8 +1620,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1464,8 +1642,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1476,8 +1664,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1488,8 +1686,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1500,8 +1708,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1512,8 +1730,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1524,8 +1752,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1536,8 +1774,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1548,8 +1796,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1560,8 +1818,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1572,8 +1840,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1584,8 +1862,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1596,8 +1884,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1608,8 +1906,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1620,8 +1928,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1632,8 +1950,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1644,8 +1972,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1656,8 +1994,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1668,8 +2016,18 @@
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1680,8 +2038,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>23</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1692,8 +2060,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>24</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1704,8 +2082,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1716,8 +2104,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>26</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1728,8 +2126,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>27</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1740,8 +2148,18 @@
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>28</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1752,8 +2170,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>29</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1764,8 +2192,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1776,18 +2214,38 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>31</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C33">
         <f>SUM(C2:C32)</f>
         <v>181.66666666666669</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>111</v>
+      </c>
+      <c r="H33">
+        <f>SUM(H2:H32)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C34">
+        <v>310</v>
+      </c>
+      <c r="H34">
         <v>310</v>
       </c>
     </row>
